--- a/db_feed/OFET_template_v6.xlsx
+++ b/db_feed/OFET_template_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D320171-FE2F-4ECD-84D0-4F0CC53F7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7876F19-A5FC-4673-A018-905AFFAAB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2753,7 +2753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>

--- a/db_feed/OFET_template_v6.xlsx
+++ b/db_feed/OFET_template_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7876F19-A5FC-4673-A018-905AFFAAB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE4E849-2A03-435B-841A-991CBF873AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="411">
   <si>
     <t>UNIT</t>
   </si>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2977,7 +2977,9 @@
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="D21" s="106" t="s">
+        <v>223</v>
+      </c>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5">
@@ -4082,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
